--- a/uploads/user_judgments.xlsx
+++ b/uploads/user_judgments.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No Ambiguity</t>
+          <t>Medium Ambiguity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>High Ambiguity</t>
+          <t>Medium Ambiguity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Low Ambiguity</t>
+          <t>Medium Ambiguity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Low Ambiguity</t>
+          <t>Medium Ambiguity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Medium Ambiguity</t>
+          <t>Low Ambiguity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
